--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il12b-Il23r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il12b-Il23r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,10 +537,10 @@
         <v>0.275877</v>
       </c>
       <c r="I2">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491324</v>
       </c>
       <c r="J2">
-        <v>0.06282071922171414</v>
+        <v>0.04433703455491323</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>0.043329</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7689945869198687</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7689945869198687</v>
       </c>
       <c r="Q2">
         <v>0.001328163837</v>
@@ -567,15 +567,15 @@
         <v>0.011953474533</v>
       </c>
       <c r="S2">
-        <v>0.06282071922171414</v>
+        <v>0.03409493957280745</v>
       </c>
       <c r="T2">
-        <v>0.06282071922171414</v>
+        <v>0.03409493957280745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -584,25 +584,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.371873333333333</v>
+        <v>0.091959</v>
       </c>
       <c r="H3">
-        <v>4.11562</v>
+        <v>0.275877</v>
       </c>
       <c r="I3">
-        <v>0.9371792807782859</v>
+        <v>0.04433703455491324</v>
       </c>
       <c r="J3">
-        <v>0.9371792807782858</v>
+        <v>0.04433703455491323</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -611,28 +611,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
+        <v>0.004338666666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.013016</v>
+      </c>
+      <c r="O3">
+        <v>0.2310054130801314</v>
+      </c>
+      <c r="P3">
+        <v>0.2310054130801313</v>
+      </c>
+      <c r="Q3">
+        <v>0.000398979448</v>
+      </c>
+      <c r="R3">
+        <v>0.003590815032</v>
+      </c>
+      <c r="S3">
+        <v>0.01024209498210579</v>
+      </c>
+      <c r="T3">
+        <v>0.01024209498210579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.982131</v>
+      </c>
+      <c r="H4">
+        <v>5.946393</v>
+      </c>
+      <c r="I4">
+        <v>0.9556629654450868</v>
+      </c>
+      <c r="J4">
+        <v>0.9556629654450867</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
         <v>0.014443</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>0.043329</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.01981396655333333</v>
-      </c>
-      <c r="R3">
-        <v>0.17832569898</v>
-      </c>
-      <c r="S3">
-        <v>0.9371792807782859</v>
-      </c>
-      <c r="T3">
-        <v>0.9371792807782858</v>
+      <c r="O4">
+        <v>0.7689945869198687</v>
+      </c>
+      <c r="P4">
+        <v>0.7689945869198687</v>
+      </c>
+      <c r="Q4">
+        <v>0.028627918033</v>
+      </c>
+      <c r="R4">
+        <v>0.257651262297</v>
+      </c>
+      <c r="S4">
+        <v>0.7348996473470613</v>
+      </c>
+      <c r="T4">
+        <v>0.7348996473470611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.982131</v>
+      </c>
+      <c r="H5">
+        <v>5.946393</v>
+      </c>
+      <c r="I5">
+        <v>0.9556629654450868</v>
+      </c>
+      <c r="J5">
+        <v>0.9556629654450867</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.004338666666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.013016</v>
+      </c>
+      <c r="O5">
+        <v>0.2310054130801314</v>
+      </c>
+      <c r="P5">
+        <v>0.2310054130801313</v>
+      </c>
+      <c r="Q5">
+        <v>0.008599805698666668</v>
+      </c>
+      <c r="R5">
+        <v>0.077398251288</v>
+      </c>
+      <c r="S5">
+        <v>0.2207633180980256</v>
+      </c>
+      <c r="T5">
+        <v>0.2207633180980255</v>
       </c>
     </row>
   </sheetData>
